--- a/chats/51960517286@c.us.xlsx
+++ b/chats/51960517286@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>Fecha</t>
   </si>
@@ -23,6 +23,33 @@
   </si>
   <si>
     <t>hola</t>
+  </si>
+  <si>
+    <t>16-09-2022 01:02</t>
+  </si>
+  <si>
+    <t>Hola</t>
+  </si>
+  <si>
+    <t>Quiero comunicarme con el bot</t>
+  </si>
+  <si>
+    <t>Borde</t>
+  </si>
+  <si>
+    <t>16-09-2022 01:03</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Face Detection</t>
+  </si>
+  <si>
+    <t>16-09-2022 01:09</t>
+  </si>
+  <si>
+    <t>16-09-2022 01:10</t>
   </si>
 </sst>
 </file>
@@ -399,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B16"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -418,8 +445,120 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/chats/51960517286@c.us.xlsx
+++ b/chats/51960517286@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Fecha</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>16-09-2022 01:10</t>
+  </si>
+  <si>
+    <t>16-09-2022 03:03</t>
+  </si>
+  <si>
+    <t>16-09-2022 03:11</t>
   </si>
 </sst>
 </file>
@@ -426,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -557,6 +563,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
